--- a/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
+++ b/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 копейка" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5 рублей" sheetId="7" r:id="rId7"/>
     <sheet name="10 рублей" sheetId="8" r:id="rId8"/>
     <sheet name="Обзор" sheetId="9" r:id="rId9"/>
+    <sheet name="Сайты" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -583,7 +584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="16">
   <si>
     <t>Год</t>
   </si>
@@ -609,9 +610,6 @@
     <t>10к</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>50к</t>
   </si>
   <si>
@@ -629,12 +627,18 @@
   <si>
     <t>https://www.russian-money.ru/catalogs/regularnii-chekan-1997</t>
   </si>
+  <si>
+    <t>http://www.vitalya-mag-moneti.ru/collection/standartrossovr/</t>
+  </si>
+  <si>
+    <t>Уточнить, что за фигня, такой монеты не должно существовать</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -653,6 +657,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -903,10 +913,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,6 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,7 +1001,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
@@ -1459,6 +1472,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1492,6 +1553,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -1555,6 +1664,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1603,6 +1760,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1618,7 +1823,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1636,6 +1841,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -1699,6 +1952,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1732,6 +2033,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -1795,6 +2144,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1828,6 +2225,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -2145,11 +2590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2161,26 +2606,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2544,8 +2989,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="21" t="str">
+        <f>IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -6483,6 +6939,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
@@ -6491,7 +6982,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6503,26 +6994,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -6888,8 +7379,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="21" t="str">
+        <f>IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -10835,7 +11337,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10847,26 +11349,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -11079,7 +11581,7 @@
         <v>!!!!!!!!!!!!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2009</v>
       </c>
@@ -11094,7 +11596,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2010</v>
       </c>
@@ -11109,7 +11611,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2011</v>
       </c>
@@ -11124,7 +11626,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -11139,7 +11641,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2013</v>
       </c>
@@ -11154,7 +11656,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2014</v>
       </c>
@@ -11169,7 +11671,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2015</v>
       </c>
@@ -11184,7 +11686,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2016</v>
       </c>
@@ -11199,7 +11701,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2017</v>
       </c>
@@ -11214,7 +11716,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2018</v>
       </c>
@@ -11222,34 +11724,48 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4" t="str">
         <f>IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
+        <v>OK</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
@@ -15131,27 +15647,27 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D26">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D26">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsBlanks" dxfId="31" priority="2">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D26">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="notContainsBlanks" dxfId="30" priority="3">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C26">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C26">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15164,8 +15680,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15177,7 +15694,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15189,26 +15706,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -15557,12 +16074,34 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" ref="D26:D27" si="1">IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -19462,12 +20001,12 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19479,17 +20018,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsBlanks" dxfId="26" priority="4">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="notContainsBlanks" dxfId="25" priority="5">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
@@ -19502,13 +20041,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19520,26 +20059,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -19903,8 +20442,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" ref="D27" si="2">IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -23793,10 +24343,6 @@
     <row r="999" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
-    </row>
-    <row r="1000" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23836,27 +24382,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="containsBlanks" dxfId="19" priority="2">
       <formula>LEN(TRIM(D26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="notContainsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(D26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B26:C27">
     <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B26:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -23869,8 +24415,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23878,11 +24425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23894,26 +24441,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -24277,8 +24824,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" ref="D27" si="2">IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -28210,27 +28768,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(D26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="notContainsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(D26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B26:C27">
     <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B26:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -28256,7 +28814,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28268,26 +28826,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -28636,12 +29194,34 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" ref="D26:D27" si="1">IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -32541,27 +33121,27 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="notContainsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -32587,7 +33167,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32599,26 +33179,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -32967,12 +33547,34 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" ref="D26:D27" si="1">IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!!!</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
@@ -36872,27 +37474,27 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
+  <conditionalFormatting sqref="D3:D27">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C25">
+  <conditionalFormatting sqref="B3:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -36912,13 +37514,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36928,48 +37530,45 @@
     <col min="18" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
@@ -37019,7 +37618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1997</v>
       </c>
@@ -37085,7 +37684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>1998</v>
       </c>
@@ -37152,7 +37751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1999</v>
       </c>
@@ -37214,9 +37813,8 @@
       <c r="Q5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2000</v>
       </c>
@@ -37275,7 +37873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2001</v>
       </c>
@@ -37334,7 +37932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2002</v>
       </c>
@@ -37395,7 +37993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2003</v>
       </c>
@@ -37456,7 +38054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2004</v>
       </c>
@@ -37517,7 +38115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2005</v>
       </c>
@@ -37580,7 +38178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>2006</v>
       </c>
@@ -37641,7 +38239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>2006</v>
       </c>
@@ -37702,7 +38300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2007</v>
       </c>
@@ -37767,7 +38365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2008</v>
       </c>
@@ -37834,7 +38432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>2009</v>
       </c>
@@ -38444,42 +39042,118 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="A26" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="14">
+        <f>SUM('1 рубль'!B26)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="14">
+        <f>SUM('2 рубля'!B26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="14">
+        <f>SUM('5 рублей'!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="22">
+        <f>SUM('10 рублей'!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="A27" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="14">
+        <f>SUM('1 рубль'!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="14">
+        <f>SUM('2 рубля'!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="14">
+        <f>SUM('5 рублей'!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="22">
+        <f>SUM('10 рублей'!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -56980,12 +57654,12 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:F23 G3:G22 H3:I23 J3:Q25">
+  <conditionalFormatting sqref="B3:F23 G3:G22 H3:I23 J3:Q27">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F23 G3:G22 H3:I23 J3:Q25">
+  <conditionalFormatting sqref="B3:F23 G3:G22 H3:I23 J3:Q27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -56997,10 +57671,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="R1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
+++ b/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
@@ -2594,7 +2594,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2753,14 +2753,14 @@
         <v>2005</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38121,11 +38121,11 @@
       </c>
       <c r="B11" s="14">
         <f>SUM('1 копейка'!B11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="15">
         <f>SUM('1 копейка'!C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14">
         <f>SUM('5 копеек'!B11)</f>

--- a/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
+++ b/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 копейка" sheetId="1" r:id="rId1"/>
@@ -2590,11 +2590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2738,14 +2738,14 @@
         <v>2004</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,14 +2813,14 @@
         <v>2008</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7023,11 +7023,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D23" si="0">IF(OR(AND(B3=1,C3=1),AND(B3=1,C3="-"),AND(B3="-",C3=1)),"OK", IF(OR(B3=0,C3=0),"!!!!!!!!!!!!",""))</f>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7096,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -7111,14 +7111,14 @@
         <v>2003</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,11 +7144,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7156,14 +7156,14 @@
         <v>2006</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
+        <f>IF(OR(AND(B12=1,C12=1),AND(B12=1,C12="-"),AND(B12="-",C12=1)),"OK", IF(OR(B12=0,C12=0),"!!!!!!!!!!!!",""))</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7188,14 +7188,14 @@
         <v>2007</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7203,14 +7203,14 @@
         <v>2008</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>2009</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -11333,11 +11333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11390,14 +11390,14 @@
         <v>1998</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11405,14 +11405,14 @@
         <v>1999</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11420,14 +11420,14 @@
         <v>2000</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -11436,14 +11436,14 @@
         <v>2001</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11451,14 +11451,14 @@
         <v>2002</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11466,14 +11466,14 @@
         <v>2003</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11481,14 +11481,14 @@
         <v>2004</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11496,14 +11496,14 @@
         <v>2005</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11511,14 +11511,14 @@
         <v>2006</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11526,14 +11526,14 @@
         <v>2006</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11541,14 +11541,14 @@
         <v>2007</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11556,14 +11556,14 @@
         <v>2008</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11571,14 +11571,14 @@
         <v>2009</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11601,14 +11601,14 @@
         <v>2010</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11616,14 +11616,14 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11631,14 +11631,14 @@
         <v>2012</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11646,14 +11646,14 @@
         <v>2013</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11661,14 +11661,14 @@
         <v>2014</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15694,7 +15694,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:D27"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(OR(AND(B3=1,C3=1),AND(B3=1,C3="-"),AND(B3="-",C3=1)),"OK", IF(OR(B3=0,C3=0),"!!!!!!!!!!!!",""))</f>
@@ -15747,14 +15747,14 @@
         <v>1998</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15853,14 +15853,14 @@
         <v>2005</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15898,14 +15898,14 @@
         <v>2007</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15913,14 +15913,14 @@
         <v>2008</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15928,7 +15928,7 @@
         <v>2009</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -15958,7 +15958,7 @@
         <v>2010</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -15973,14 +15973,14 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15988,14 +15988,14 @@
         <v>2012</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16003,7 +16003,7 @@
         <v>2013</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -16018,14 +16018,14 @@
         <v>2014</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
+        <f>IF(OR(AND(B22=1,C22=1),AND(B22=1,C22="-"),AND(B22="-",C22=1)),"OK", IF(OR(B22=0,C22=0),"!!!!!!!!!!!!",""))</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16039,7 +16039,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(B23=1,C23=1),AND(B23=1,C23="-"),AND(B23="-",C23=1)),"OK", IF(OR(B23=0,C23=0),"!!!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
     </row>
@@ -37636,7 +37636,7 @@
       </c>
       <c r="E3" s="15">
         <f>SUM('5 копеек'!C3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="14">
         <f>SUM('10 копеек'!B3)</f>
@@ -37652,7 +37652,7 @@
       </c>
       <c r="I3" s="15">
         <f>SUM('50 копеек'!C3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="14">
         <f>SUM('1 рубль'!B3)</f>
@@ -37706,7 +37706,7 @@
       </c>
       <c r="F4" s="14">
         <f>SUM('10 копеек'!B4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="15">
         <f>SUM('10 копеек'!C4)</f>
@@ -37714,7 +37714,7 @@
       </c>
       <c r="H4" s="14">
         <f>SUM('50 копеек'!B4)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="15">
         <f>SUM('50 копеек'!C4)</f>
@@ -37771,11 +37771,11 @@
       </c>
       <c r="F5" s="14">
         <f>SUM('10 копеек'!B5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="15">
         <f>SUM('10 копеек'!C5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="14">
         <f>SUM('50 копеек'!B5)</f>
@@ -37836,7 +37836,7 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('10 копеек'!B6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="15">
         <f>SUM('10 копеек'!C6)</f>
@@ -37895,7 +37895,7 @@
       </c>
       <c r="F7" s="14">
         <f>SUM('10 копеек'!B7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="15">
         <f>SUM('10 копеек'!C7)</f>
@@ -37946,7 +37946,7 @@
       </c>
       <c r="D8" s="14">
         <f>SUM('5 копеек'!B8)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="15">
         <f>SUM('5 копеек'!C8)</f>
@@ -37954,11 +37954,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('10 копеек'!B8)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8" s="15">
         <f>SUM('10 копеек'!C8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="14">
         <f>SUM('50 копеек'!B8)</f>
@@ -38007,19 +38007,19 @@
       </c>
       <c r="D9" s="14">
         <f>SUM('5 копеек'!B9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="15">
         <f>SUM('5 копеек'!C9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('10 копеек'!B9)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G9" s="15">
         <f>SUM('10 копеек'!C9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="14">
         <f>SUM('50 копеек'!B9)</f>
@@ -38060,7 +38060,7 @@
       </c>
       <c r="B10" s="14">
         <f>SUM('1 копейка'!B10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="15">
         <f>SUM('1 копейка'!C10)</f>
@@ -38076,11 +38076,11 @@
       </c>
       <c r="F10" s="14">
         <f>SUM('10 копеек'!B10)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G10" s="15">
         <f>SUM('10 копеек'!C10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="14">
         <f>SUM('50 копеек'!B10)</f>
@@ -38133,19 +38133,19 @@
       </c>
       <c r="E11" s="15">
         <f>SUM('5 копеек'!C11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14">
         <f>SUM('10 копеек'!B11)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15">
         <f>SUM('10 копеек'!C11)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" s="14">
         <f>SUM('50 копеек'!B11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15">
         <f>SUM('50 копеек'!C11)</f>
@@ -38192,7 +38192,7 @@
       </c>
       <c r="D12" s="14">
         <f>SUM('5 копеек'!B12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="15">
         <f>SUM('5 копеек'!C12)</f>
@@ -38200,11 +38200,11 @@
       </c>
       <c r="F12" s="14">
         <f>SUM('10 копеек'!B12)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G12" s="15">
         <f>SUM('10 копеек'!C12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="14">
         <f>SUM('50 копеек'!B12)</f>
@@ -38257,7 +38257,7 @@
       </c>
       <c r="F13" s="14">
         <f>SUM('10 копеек'!B13)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G13" s="15">
         <f>SUM('10 копеек'!C13)</f>
@@ -38314,7 +38314,7 @@
       </c>
       <c r="D14" s="14">
         <f>SUM('5 копеек'!B14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="15">
         <f>SUM('5 копеек'!C14)</f>
@@ -38322,15 +38322,15 @@
       </c>
       <c r="F14" s="14">
         <f>SUM('10 копеек'!B14)</f>
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G14" s="15">
         <f>SUM('10 копеек'!C14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="14">
         <f>SUM('50 копеек'!B14)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="15">
         <f>SUM('50 копеек'!C14)</f>
@@ -38371,7 +38371,7 @@
       </c>
       <c r="B15" s="14">
         <f>SUM('1 копейка'!B15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="15">
         <f>SUM('1 копейка'!C15)</f>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="D15" s="14">
         <f>SUM('5 копеек'!B15)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E15" s="15">
         <f>SUM('5 копеек'!C15)</f>
@@ -38387,15 +38387,15 @@
       </c>
       <c r="F15" s="14">
         <f>SUM('10 копеек'!B15)</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G15" s="15">
         <f>SUM('10 копеек'!C15)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15" s="14">
         <f>SUM('50 копеек'!B15)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="15">
         <f>SUM('50 копеек'!C15)</f>
@@ -38446,7 +38446,7 @@
       </c>
       <c r="D16" s="14">
         <f>SUM('5 копеек'!B16)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="15">
         <f>SUM('5 копеек'!C16)</f>
@@ -38454,15 +38454,15 @@
       </c>
       <c r="F16" s="14">
         <f>SUM('10 копеек'!B16)</f>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G16" s="15">
         <f>SUM('10 копеек'!C16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="14">
         <f>SUM('50 копеек'!B16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="15">
         <f>SUM('50 копеек'!C16)</f>
@@ -38577,15 +38577,15 @@
       </c>
       <c r="F18" s="14">
         <f>SUM('10 копеек'!B18)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G18" s="15">
         <f>SUM('10 копеек'!C18)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="14">
         <f>SUM('50 копеек'!B18)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I18" s="15">
         <f>SUM('50 копеек'!C18)</f>
@@ -38642,14 +38642,14 @@
       </c>
       <c r="F19" s="14">
         <f>SUM('10 копеек'!B19)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="14">
         <f>SUM('50 копеек'!B19)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>5</v>
@@ -38701,14 +38701,14 @@
       </c>
       <c r="F20" s="14">
         <f>SUM('10 копеек'!B20)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="14">
         <f>SUM('50 копеек'!B20)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>5</v>
@@ -38760,7 +38760,7 @@
       </c>
       <c r="F21" s="14">
         <f>SUM('10 копеек'!B21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="15">
         <f>SUM('10 копеек'!C21)</f>
@@ -38768,7 +38768,7 @@
       </c>
       <c r="H21" s="14">
         <f>SUM('50 копеек'!B21)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" s="15">
         <f>SUM('50 копеек'!C21)</f>
@@ -38828,14 +38828,14 @@
       </c>
       <c r="F22" s="14">
         <f>SUM('10 копеек'!B22)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="14">
         <f>SUM('50 копеек'!B22)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>5</v>

--- a/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
+++ b/Collections/РФ/Монеты регулярного чекана 1997-н.в..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="1 копейка" sheetId="1" r:id="rId1"/>
@@ -2590,11 +2590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2632,14 +2632,14 @@
         <v>1997</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D23" si="0">IF(OR(AND(B3=1,C3=1),AND(B3=1,C3="-"),AND(B3="-",C3=1)),"OK", IF(OR(B3=0,C3=0),"!!!!!!!!!!!!",""))</f>
-        <v>OK</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7066,14 +7066,14 @@
         <v>2000</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7221,11 +7221,11 @@
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11333,11 +11333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11574,7 +11574,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15694,7 +15694,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15841,11 +15841,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20047,7 +20047,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G19:G20"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20284,11 +20284,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20359,11 +20359,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20446,14 +20446,14 @@
         <v>2019</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" ref="D27" si="2">IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24429,7 +24429,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24618,14 +24618,14 @@
         <v>2006</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24696,11 +24696,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24708,14 +24708,14 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24741,11 +24741,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24798,14 +24798,14 @@
         <v>2017</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24828,14 +24828,14 @@
         <v>2019</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" ref="D27" si="2">IF(OR(AND(B27=1,C27=1),AND(B27=1,C27="-"),AND(B27="-",C27=1)),"OK", IF(OR(B27=0,C27=0),"!!!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28814,7 +28814,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29036,11 +29036,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29051,11 +29051,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29081,11 +29081,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29126,11 +29126,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29153,14 +29153,14 @@
         <v>2015</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29168,14 +29168,14 @@
         <v>2016</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29198,14 +29198,14 @@
         <v>2018</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" ref="D26:D27" si="1">IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29213,14 +29213,14 @@
         <v>2019</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33167,7 +33167,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33551,14 +33551,14 @@
         <v>2018</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" ref="D26:D27" si="1">IF(OR(AND(B26=1,C26=1),AND(B26=1,C26="-"),AND(B26="-",C26=1)),"OK", IF(OR(B26=0,C26=0),"!!!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33566,14 +33566,14 @@
         <v>2019</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>!!!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="B3" s="14">
         <f>SUM('1 копейка'!B3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="15">
         <f>SUM('1 копейка'!C3)</f>
@@ -37828,7 +37828,7 @@
       </c>
       <c r="D6" s="14">
         <f>SUM('5 копеек'!B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="15">
         <f>SUM('5 копеек'!C6)</f>
@@ -38088,7 +38088,7 @@
       </c>
       <c r="I10" s="15">
         <f>SUM('50 копеек'!C10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>5</v>
@@ -38281,7 +38281,7 @@
       </c>
       <c r="L13" s="14">
         <f>SUM('2 рубля'!B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="15">
         <f>SUM('2 рубля'!C13)</f>
@@ -38423,7 +38423,7 @@
       </c>
       <c r="O15" s="15">
         <f>SUM('5 рублей'!C15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="22" t="s">
         <v>5</v>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="E16" s="15">
         <f>SUM('5 копеек'!C16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="14">
         <f>SUM('10 копеек'!B16)</f>
@@ -38458,7 +38458,7 @@
       </c>
       <c r="G16" s="15">
         <f>SUM('10 копеек'!C16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="14">
         <f>SUM('50 копеек'!B16)</f>
@@ -38474,7 +38474,7 @@
       </c>
       <c r="K16" s="15">
         <f>SUM('1 рубль'!C16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="14">
         <f>SUM('2 рубля'!B16)</f>
@@ -38490,7 +38490,7 @@
       </c>
       <c r="O16" s="15">
         <f>SUM('5 рублей'!C16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22">
         <f>SUM('10 рублей'!B16)</f>
@@ -38605,7 +38605,7 @@
       </c>
       <c r="M18" s="15">
         <f>SUM('2 рубля'!C18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <f>SUM('5 рублей'!B18)</f>
@@ -38613,7 +38613,7 @@
       </c>
       <c r="O18" s="15">
         <f>SUM('5 рублей'!C18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22">
         <f>SUM('10 рублей'!B18)</f>
@@ -38663,7 +38663,7 @@
       </c>
       <c r="L19" s="14">
         <f>SUM('2 рубля'!B19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>5</v>
@@ -38780,7 +38780,7 @@
       </c>
       <c r="K21" s="15">
         <f>SUM('1 рубль'!C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="14">
         <f>SUM('2 рубля'!B21)</f>
@@ -38788,7 +38788,7 @@
       </c>
       <c r="M21" s="15">
         <f>SUM('2 рубля'!C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="14">
         <f>SUM('5 рублей'!B21)</f>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="O21" s="15">
         <f>SUM('5 рублей'!C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22">
         <f>SUM('10 рублей'!B21)</f>
@@ -38914,7 +38914,7 @@
       </c>
       <c r="N23" s="14">
         <f>SUM('5 рублей'!B23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>5</v>
@@ -38971,7 +38971,7 @@
       </c>
       <c r="N24" s="14">
         <f>SUM('5 рублей'!B24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>5</v>
@@ -39021,7 +39021,7 @@
       </c>
       <c r="L25" s="14">
         <f>SUM('2 рубля'!B25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>5</v>
@@ -39085,14 +39085,14 @@
       </c>
       <c r="N26" s="14">
         <f>SUM('5 рублей'!B26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P26" s="22">
         <f>SUM('10 рублей'!B26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="15" t="s">
         <v>5</v>
@@ -39128,28 +39128,28 @@
       </c>
       <c r="J27" s="14">
         <f>SUM('1 рубль'!B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L27" s="14">
         <f>SUM('2 рубля'!B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="14">
         <f>SUM('5 рублей'!B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="22">
         <f>SUM('10 рублей'!B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="15" t="s">
         <v>5</v>
